--- a/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="188">
   <si>
     <t>ModuleName</t>
   </si>
@@ -537,6 +537,63 @@
   </si>
   <si>
     <t>93625</t>
+  </si>
+  <si>
+    <t>4056820945</t>
+  </si>
+  <si>
+    <t>6722110342</t>
+  </si>
+  <si>
+    <t>9283642560</t>
+  </si>
+  <si>
+    <t>2803721740</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-24 03:01:39 PM</t>
+  </si>
+  <si>
+    <t>2650632898</t>
+  </si>
+  <si>
+    <t>6774015219</t>
+  </si>
+  <si>
+    <t>7619510592</t>
+  </si>
+  <si>
+    <t>3117055948</t>
+  </si>
+  <si>
+    <t>2024-01-24 03:09:01 PM</t>
+  </si>
+  <si>
+    <t>93946</t>
+  </si>
+  <si>
+    <t>5645901384</t>
+  </si>
+  <si>
+    <t>8534621837</t>
+  </si>
+  <si>
+    <t>1407798439</t>
+  </si>
+  <si>
+    <t>7842136796</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 03:15:20 PM</t>
+  </si>
+  <si>
+    <t>94434</t>
   </si>
 </sst>
 </file>
@@ -6112,7 +6169,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6136,13 +6193,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6181,13 +6238,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6205,7 +6262,7 @@
         <v>165</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6217,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6229,7 +6286,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6491,7 +6548,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6566,7 +6623,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6590,7 +6647,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6602,7 +6659,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6857,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6932,7 +6989,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -6956,7 +7013,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -6968,7 +7025,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7223,7 +7280,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7298,7 +7355,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7322,7 +7379,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7334,7 +7391,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="196">
   <si>
     <t>ModuleName</t>
   </si>
@@ -594,6 +594,30 @@
   </si>
   <si>
     <t>94434</t>
+  </si>
+  <si>
+    <t>3928270941</t>
+  </si>
+  <si>
+    <t>5254558538</t>
+  </si>
+  <si>
+    <t>6178382910</t>
+  </si>
+  <si>
+    <t>1405389051</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 07:49:36 PM</t>
+  </si>
+  <si>
+    <t>97690</t>
   </si>
 </sst>
 </file>
@@ -6169,7 +6193,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6193,13 +6217,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6238,13 +6262,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6262,7 +6286,7 @@
         <v>165</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6274,7 +6298,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6286,7 +6310,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6548,7 +6572,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6623,7 +6647,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6647,7 +6671,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6659,7 +6683,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6914,7 +6938,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6989,7 +7013,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7013,7 +7037,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7025,7 +7049,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7280,7 +7304,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7355,7 +7379,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7379,7 +7403,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7391,7 +7415,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\RS_CRM\testData\Schedule\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
     <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="167">
   <si>
     <t>ModuleName</t>
   </si>
@@ -493,12 +493,52 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>3033460460</t>
+  </si>
+  <si>
+    <t>2424178912</t>
+  </si>
+  <si>
+    <t>9153012649</t>
+  </si>
+  <si>
+    <t>5003700590</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>2024-05-31 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>126174</t>
+  </si>
+  <si>
+    <t>5653094250</t>
+  </si>
+  <si>
+    <t>6571600101</t>
+  </si>
+  <si>
+    <t>3756905950</t>
+  </si>
+  <si>
+    <t>4043615867</t>
+  </si>
+  <si>
+    <t>126178</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,54 +1086,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2"/>
-    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="2"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="2"/>
-    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="2"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" style="2" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.85546875" style="2" customWidth="1"/>
-    <col min="53" max="53" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="30.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" style="2" width="8.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="13" style="2" width="8.7109375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" style="2" width="8.7109375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" style="2" width="8.7109375"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="28.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.85546875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="18.140625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="22.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" customWidth="true" style="2" width="25.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="14.85546875"/>
+    <col min="54" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -1273,8 +1313,8 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>145</v>
+      <c r="F2" t="s" s="2">
+        <v>162</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1297,14 +1337,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>150</v>
+      <c r="P2" t="s" s="2">
+        <v>160</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1342,14 +1382,14 @@
       <c r="AB2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>149</v>
+      <c r="AC2" t="s" s="2">
+        <v>159</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>146</v>
+      <c r="AE2" t="s" s="2">
+        <v>163</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1363,11 +1403,11 @@
       <c r="AI2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>151</v>
+      <c r="AK2" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>166</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1378,8 +1418,8 @@
       <c r="AS2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>147</v>
+      <c r="AT2" t="s" s="2">
+        <v>164</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1390,8 +1430,8 @@
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>148</v>
+      <c r="AX2" t="s" s="2">
+        <v>165</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1435,54 +1475,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1805,54 +1845,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -2175,54 +2215,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">

--- a/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="180">
   <si>
     <t>ModuleName</t>
   </si>
@@ -532,6 +532,45 @@
   </si>
   <si>
     <t>126178</t>
+  </si>
+  <si>
+    <t>9840073814</t>
+  </si>
+  <si>
+    <t>9840040966</t>
+  </si>
+  <si>
+    <t>9840010251</t>
+  </si>
+  <si>
+    <t>9840095716</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-07-14 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>136741</t>
+  </si>
+  <si>
+    <t>9840098495</t>
+  </si>
+  <si>
+    <t>9840003908</t>
+  </si>
+  <si>
+    <t>9840092864</t>
+  </si>
+  <si>
+    <t>9840071078</t>
+  </si>
+  <si>
+    <t>136743</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1353,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1338,13 +1377,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1383,13 +1422,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1407,7 +1446,7 @@
         <v>158</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1419,7 +1458,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1431,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>

--- a/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Weekly_Test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="195">
   <si>
     <t>ModuleName</t>
   </si>
@@ -571,6 +571,51 @@
   </si>
   <si>
     <t>136743</t>
+  </si>
+  <si>
+    <t>9840049122</t>
+  </si>
+  <si>
+    <t>9840041683</t>
+  </si>
+  <si>
+    <t>9840077590</t>
+  </si>
+  <si>
+    <t>9840016395</t>
+  </si>
+  <si>
+    <t>9840005313</t>
+  </si>
+  <si>
+    <t>9840047150</t>
+  </si>
+  <si>
+    <t>9840019364</t>
+  </si>
+  <si>
+    <t>9840060559</t>
+  </si>
+  <si>
+    <t>9840067198</t>
+  </si>
+  <si>
+    <t>9840035373</t>
+  </si>
+  <si>
+    <t>9840002610</t>
+  </si>
+  <si>
+    <t>9840011361</t>
+  </si>
+  <si>
+    <t>02-01-2025</t>
+  </si>
+  <si>
+    <t>05-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158764</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1398,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1377,13 +1422,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1422,13 +1467,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1446,7 +1491,7 @@
         <v>158</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1458,7 +1503,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1470,7 +1515,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
